--- a/Parts/starliteBOM.xlsx
+++ b/Parts/starliteBOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Starlite\Parts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C35257-9BA1-4773-B059-D29A5ACC1273}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2AC51D1-60DA-407C-BCAE-40851C223D0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4068" yWindow="1428" windowWidth="17280" windowHeight="9420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25728" yWindow="1308" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Assy BOM" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="77">
   <si>
     <t>Description</t>
   </si>
@@ -251,6 +251,12 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Inner acrylic can 1/8" thick, but it will be harder to solder the LED strips to the pin headers</t>
+  </si>
+  <si>
+    <t>Each point of a star uses a strip of 7 LEDs, so the 60 LED strip must be cut up</t>
   </si>
 </sst>
 </file>
@@ -415,7 +421,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -498,6 +504,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -779,10 +789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D32C196E-C6EB-45EC-83D9-3BE1DD3E80C5}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -796,12 +806,12 @@
     <col min="7" max="7" width="12.77734375" style="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -824,7 +834,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>35</v>
       </c>
@@ -848,7 +858,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>36</v>
       </c>
@@ -872,7 +882,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>48</v>
       </c>
@@ -894,7 +904,7 @@
       </c>
       <c r="G6" s="34"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>43</v>
       </c>
@@ -916,7 +926,7 @@
       </c>
       <c r="G7" s="34"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -937,7 +947,7 @@
       </c>
       <c r="G8" s="34"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>37</v>
       </c>
@@ -961,7 +971,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>42</v>
       </c>
@@ -975,7 +985,7 @@
       </c>
       <c r="G10" s="34"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="25"/>
       <c r="B11" s="26"/>
       <c r="C11" s="27"/>
@@ -984,7 +994,7 @@
       <c r="F11" s="28"/>
       <c r="G11" s="34"/>
     </row>
-    <row r="12" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
         <v>12</v>
       </c>
@@ -998,7 +1008,7 @@
       </c>
       <c r="G12" s="30"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>51</v>
       </c>
@@ -1020,6 +1030,32 @@
       <c r="G14" s="34" t="s">
         <v>54</v>
       </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="27"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="20"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="38"/>
+      <c r="B17" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="27"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1031,7 +1067,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
